--- a/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/ECOPLUS/4.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/ECOPLUS/4.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAVORO UTIL\FSE2.0\ECOPLUS\TESTCASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\it-fse-accreditamento\GATEWAY\A1#111GRUPPOGPI00\TESI_SPA\ECOPLUS\4.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA659C2-EFF5-4EF2-916A-C4EA797721B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416A9921-4BB9-4F60-B7C1-6EEBF8221B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="897">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4718,9 +4718,6 @@
     <t>Questo test non è applicabile perché l'unico codice utilizzato è "S", con documento firmato.</t>
   </si>
   <si>
-    <t>Viene mostrato all'utente un messaggio di errore indicando la motivazione</t>
-  </si>
-  <si>
     <t>2023-09-01T12:33:05.980Z</t>
   </si>
   <si>
@@ -4760,12 +4757,6 @@
     <t>2023-09-01T13:10:13.470Z</t>
   </si>
   <si>
-    <t>L'utente viene informato che ci sono stati problemi contattando il servizio di validazione</t>
-  </si>
-  <si>
-    <t>L'utente può continuare il flusso e il referto viene bonificato in backoffice, attraverso una procedura di rigenerazione referto, firma e reinvio</t>
-  </si>
-  <si>
     <t>E' stato impostato come non valorizzato il campo "purpose_of_use" nel JWT</t>
   </si>
   <si>
@@ -4782,6 +4773,42 @@
   </si>
   <si>
     <t>Il campo "action_id" è stato valorizzato con la stringa "TEST".</t>
+  </si>
+  <si>
+    <t>Questa casistica in realtà non si può verificare, però abbiamo comunque simulato il test forzando l a non valorizzazione del parametro indicato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> il programma memorizza nel DB il messaggio di errore che proviene dal servizio di validazione per analisi successiva in backoffice. Una volta corretta la configurazione dell'integrazione (in questo caso il paramatero purpose_of_use)  l'utente dovrà rigenerare il referto e rifirmare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> il programma memorizza nel DB il messaggio di errore che proviene dal servizio di validazione per analisi successiva in backoffice. Una volta corretta la configurazione dell'integrazione (in questo caso il paramatero action_id)  l'utente dovrà rigenerare il referto e rifirmare</t>
+  </si>
+  <si>
+    <t>In caso di timeout il processo applicativo prosegue ed il documento viene firmato. 
+Eventuali re-invii di validazione vengono concordati/definiti con le singole Aziende. 
+Viene messo a disposizione dell'Azienda una modalità di verifica dei documenti che hanno avuto errori di validazione 
+da parte del gateway per poterli individuare e procedere alla correzione, firma e re-invio.
+Gli utenti abilitati (ad esempio le figure di Back-office concordate con l'Azienda) 
+possono accedere ai dati e consultare eventuali errori andando ad individuare i referti da correggere. 
+Dopo la correzioni, il referto sarà ri-generato ed il Medico lo potrà rifirmare.</t>
+  </si>
+  <si>
+    <t>Errore generico in fase di validazione</t>
+  </si>
+  <si>
+    <t>Il campo purpose_of_use non è valorizzato</t>
+  </si>
+  <si>
+    <t>Il campo action_id non è corretto</t>
+  </si>
+  <si>
+    <t>L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']</t>
+  </si>
+  <si>
+    <t>L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ]</t>
+  </si>
+  <si>
+    <t>Il codice fiscale nel campo person_id non  corretto</t>
   </si>
 </sst>
 </file>
@@ -7707,10 +7734,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B176" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S55" sqref="S55"/>
+      <selection pane="bottomRight" activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8969,16 +8996,20 @@
         <v>45170</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>876</v>
-      </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
+        <v>875</v>
+      </c>
+      <c r="J39" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="K39" s="25" t="s">
+        <v>887</v>
+      </c>
       <c r="L39" s="25" t="s">
         <v>848</v>
       </c>
@@ -8986,18 +9017,18 @@
         <v>139</v>
       </c>
       <c r="N39" s="25" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="O39" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
       <c r="S39" s="36" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="T39" s="28" t="s">
         <v>104</v>
@@ -9241,7 +9272,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="144" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>40</v>
       </c>
@@ -9261,16 +9292,20 @@
         <v>45170</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="H47" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="J47" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="K47" s="25" t="s">
         <v>887</v>
       </c>
-      <c r="I47" s="24" t="s">
-        <v>876</v>
-      </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
       <c r="L47" s="25" t="s">
         <v>848</v>
       </c>
@@ -9278,18 +9313,18 @@
         <v>139</v>
       </c>
       <c r="N47" s="25" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="O47" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
       <c r="S47" s="36" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="T47" s="28" t="s">
         <v>104</v>
@@ -9541,7 +9576,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="360" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
         <v>48</v>
       </c>
@@ -9557,11 +9592,15 @@
       <c r="E55" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F55" s="23"/>
+      <c r="F55" s="23">
+        <v>45170</v>
+      </c>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
-      <c r="J55" s="25"/>
+      <c r="J55" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25" t="s">
         <v>848</v>
@@ -9570,13 +9609,13 @@
         <v>139</v>
       </c>
       <c r="N55" s="25" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="O55" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P55" s="25" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="Q55" s="25"/>
       <c r="R55" s="26"/>
@@ -12947,7 +12986,7 @@
         <v>848</v>
       </c>
       <c r="K154" s="25" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L154" s="25"/>
       <c r="M154" s="25"/>
@@ -13113,7 +13152,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" ht="360" x14ac:dyDescent="0.3">
       <c r="A159" s="20">
         <v>152</v>
       </c>
@@ -13133,13 +13172,13 @@
         <v>45170</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H159" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="I159" s="24" t="s">
         <v>875</v>
-      </c>
-      <c r="I159" s="24" t="s">
-        <v>876</v>
       </c>
       <c r="J159" s="25" t="s">
         <v>139</v>
@@ -13152,13 +13191,13 @@
         <v>139</v>
       </c>
       <c r="N159" s="25" t="s">
-        <v>868</v>
+        <v>896</v>
       </c>
       <c r="O159" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P159" s="25" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="Q159" s="25"/>
       <c r="R159" s="26"/>
@@ -13205,7 +13244,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" ht="360" x14ac:dyDescent="0.3">
       <c r="A161" s="20">
         <v>154</v>
       </c>
@@ -13225,13 +13264,13 @@
         <v>45170</v>
       </c>
       <c r="G161" s="24" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J161" s="25" t="s">
         <v>139</v>
@@ -13244,13 +13283,13 @@
         <v>139</v>
       </c>
       <c r="N161" s="25" t="s">
-        <v>868</v>
+        <v>895</v>
       </c>
       <c r="O161" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P161" s="25" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="Q161" s="25"/>
       <c r="R161" s="26"/>
@@ -13259,7 +13298,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" ht="360" x14ac:dyDescent="0.3">
       <c r="A162" s="20">
         <v>155</v>
       </c>
@@ -13279,13 +13318,13 @@
         <v>45170</v>
       </c>
       <c r="G162" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="H162" s="24" t="s">
         <v>869</v>
       </c>
-      <c r="H162" s="24" t="s">
+      <c r="I162" s="24" t="s">
         <v>870</v>
-      </c>
-      <c r="I162" s="24" t="s">
-        <v>871</v>
       </c>
       <c r="J162" s="25" t="s">
         <v>139</v>
@@ -13298,13 +13337,13 @@
         <v>139</v>
       </c>
       <c r="N162" s="25" t="s">
-        <v>868</v>
+        <v>894</v>
       </c>
       <c r="O162" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P162" s="25" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="Q162" s="25"/>
       <c r="R162" s="26"/>
@@ -20801,13 +20840,13 @@
         <v>45170</v>
       </c>
       <c r="G381" s="24" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H381" s="24" t="s">
+        <v>878</v>
+      </c>
+      <c r="I381" s="24" t="s">
         <v>879</v>
-      </c>
-      <c r="I381" s="24" t="s">
-        <v>880</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>139</v>

--- a/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/ECOPLUS/4.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/ECOPLUS/4.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\it-fse-accreditamento\GATEWAY\A1#111GRUPPOGPI00\TESI_SPA\ECOPLUS\4.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416A9921-4BB9-4F60-B7C1-6EEBF8221B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CDEF91-8C1B-416B-9B2D-6758B0CCEDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="893">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4758,18 +4758,6 @@
   </si>
   <si>
     <t>E' stato impostato come non valorizzato il campo "purpose_of_use" nel JWT</t>
-  </si>
-  <si>
-    <t>ddcb66f10dc68fc3</t>
-  </si>
-  <si>
-    <t>2023-09-01T13:35:43.846Z</t>
-  </si>
-  <si>
-    <t>4654f8460f64490c</t>
-  </si>
-  <si>
-    <t>2023-09-01T13:39:54.795Z</t>
   </si>
   <si>
     <t>Il campo "action_id" è stato valorizzato con la stringa "TEST".</t>
@@ -7734,10 +7722,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="K39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="M161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N47" sqref="N47"/>
+      <selection pane="bottomRight" activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8992,23 +8980,15 @@
       <c r="E39" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="23">
-        <v>45170</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>883</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>882</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>875</v>
-      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
       <c r="J39" s="25" t="s">
         <v>848</v>
       </c>
       <c r="K39" s="25" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="L39" s="25" t="s">
         <v>848</v>
@@ -9017,13 +8997,13 @@
         <v>139</v>
       </c>
       <c r="N39" s="25" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="O39" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
@@ -9288,23 +9268,15 @@
       <c r="E47" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="23">
-        <v>45170</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>885</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>884</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>875</v>
-      </c>
+      <c r="F47" s="23"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
       <c r="J47" s="25" t="s">
         <v>848</v>
       </c>
       <c r="K47" s="25" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="L47" s="25" t="s">
         <v>848</v>
@@ -9313,18 +9285,18 @@
         <v>139</v>
       </c>
       <c r="N47" s="25" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="O47" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
       <c r="S47" s="36" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="T47" s="28" t="s">
         <v>104</v>
@@ -9609,13 +9581,13 @@
         <v>139</v>
       </c>
       <c r="N55" s="25" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="O55" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P55" s="25" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="Q55" s="25"/>
       <c r="R55" s="26"/>
@@ -13191,13 +13163,13 @@
         <v>139</v>
       </c>
       <c r="N159" s="25" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="O159" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P159" s="25" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="Q159" s="25"/>
       <c r="R159" s="26"/>
@@ -13283,13 +13255,13 @@
         <v>139</v>
       </c>
       <c r="N161" s="25" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="O161" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P161" s="25" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="Q161" s="25"/>
       <c r="R161" s="26"/>
@@ -13337,13 +13309,13 @@
         <v>139</v>
       </c>
       <c r="N162" s="25" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="O162" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P162" s="25" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="Q162" s="25"/>
       <c r="R162" s="26"/>

--- a/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/ECOPLUS/4.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/ECOPLUS/4.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\it-fse-accreditamento\GATEWAY\A1#111GRUPPOGPI00\TESI_SPA\ECOPLUS\4.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CDEF91-8C1B-416B-9B2D-6758B0CCEDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD45BFFA-4A8D-4D8A-9084-4531926EFFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="889">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4763,15 +4763,6 @@
     <t>Il campo "action_id" è stato valorizzato con la stringa "TEST".</t>
   </si>
   <si>
-    <t>Questa casistica in realtà non si può verificare, però abbiamo comunque simulato il test forzando l a non valorizzazione del parametro indicato.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> il programma memorizza nel DB il messaggio di errore che proviene dal servizio di validazione per analisi successiva in backoffice. Una volta corretta la configurazione dell'integrazione (in questo caso il paramatero purpose_of_use)  l'utente dovrà rigenerare il referto e rifirmare</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> il programma memorizza nel DB il messaggio di errore che proviene dal servizio di validazione per analisi successiva in backoffice. Una volta corretta la configurazione dell'integrazione (in questo caso il paramatero action_id)  l'utente dovrà rigenerare il referto e rifirmare</t>
-  </si>
-  <si>
     <t>In caso di timeout il processo applicativo prosegue ed il documento viene firmato. 
 Eventuali re-invii di validazione vengono concordati/definiti con le singole Aziende. 
 Viene messo a disposizione dell'Azienda una modalità di verifica dei documenti che hanno avuto errori di validazione 
@@ -4784,12 +4775,6 @@
     <t>Errore generico in fase di validazione</t>
   </si>
   <si>
-    <t>Il campo purpose_of_use non è valorizzato</t>
-  </si>
-  <si>
-    <t>Il campo action_id non è corretto</t>
-  </si>
-  <si>
     <t>L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']</t>
   </si>
   <si>
@@ -4797,6 +4782,9 @@
   </si>
   <si>
     <t>Il codice fiscale nel campo person_id non  corretto</t>
+  </si>
+  <si>
+    <t>Questa casistica in realtà non si può verificare perché i parametri sono fissati nell'integrazione.</t>
   </si>
 </sst>
 </file>
@@ -7722,10 +7710,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="M161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N55" sqref="N55"/>
+      <selection pane="bottomRight" activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8988,23 +8976,13 @@
         <v>848</v>
       </c>
       <c r="K39" s="25" t="s">
-        <v>883</v>
-      </c>
-      <c r="L39" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="M39" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="N39" s="25" t="s">
         <v>888</v>
       </c>
-      <c r="O39" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="P39" s="25" t="s">
-        <v>884</v>
-      </c>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
       <c r="S39" s="36" t="s">
@@ -9252,7 +9230,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>40</v>
       </c>
@@ -9276,23 +9254,13 @@
         <v>848</v>
       </c>
       <c r="K47" s="25" t="s">
-        <v>883</v>
-      </c>
-      <c r="L47" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="M47" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="N47" s="25" t="s">
-        <v>889</v>
-      </c>
-      <c r="O47" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="P47" s="25" t="s">
-        <v>885</v>
-      </c>
+        <v>888</v>
+      </c>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
       <c r="S47" s="36" t="s">
@@ -9581,13 +9549,13 @@
         <v>139</v>
       </c>
       <c r="N55" s="25" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="O55" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P55" s="25" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="Q55" s="25"/>
       <c r="R55" s="26"/>
@@ -13163,13 +13131,13 @@
         <v>139</v>
       </c>
       <c r="N159" s="25" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="O159" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P159" s="25" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="Q159" s="25"/>
       <c r="R159" s="26"/>
@@ -13255,13 +13223,13 @@
         <v>139</v>
       </c>
       <c r="N161" s="25" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="O161" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P161" s="25" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="Q161" s="25"/>
       <c r="R161" s="26"/>
@@ -13309,13 +13277,13 @@
         <v>139</v>
       </c>
       <c r="N162" s="25" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="O162" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P162" s="25" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="Q162" s="25"/>
       <c r="R162" s="26"/>
